--- a/Backend/Model Metrics/metrics_rfc_CAP2_vaso.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP2_vaso.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8632478632478633</v>
+        <v>0.8413685847589425</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7049180327868853</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8746177370030581</v>
+        <v>0.8556701030927835</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.293103448275862</v>
+        <v>0.3385826771653543</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9761092150170648</v>
+        <v>0.9651162790697675</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8781218144750255</v>
+        <v>0.873486000788688</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/Model Metrics/metrics_rfc_CAP2_vaso.xlsx
+++ b/Backend/Model Metrics/metrics_rfc_CAP2_vaso.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8413685847589425</v>
+        <v>0.8289269051321928</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8556701030927835</v>
+        <v>0.8419243986254296</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3385826771653543</v>
+        <v>0.3185185185185185</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9651162790697675</v>
+        <v>0.9645669291338582</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.873486000788688</v>
+        <v>0.872852233676976</v>
       </c>
     </row>
   </sheetData>
